--- a/August'21/16.08.2021/Daily Sales Info August-2021.xlsx
+++ b/August'21/16.08.2021/Daily Sales Info August-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="828" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="828" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -21845,8 +21845,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23543,9 +23543,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25226,9 +25226,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
